--- a/qPCR/B2M and YWHAZ.xlsx
+++ b/qPCR/B2M and YWHAZ.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="75" documentId="14_{356FDF62-5703-478C-8C2C-57836FCBBFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7049620-864C-4118-A7D2-E7769143390A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -20508,7 +20508,7 @@
         <v>4.5270938910436237E-3</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" ref="F37:F62" si="6">$C$29^($B$3-C39)</f>
+        <f t="shared" ref="F39:F62" si="6">$C$29^($B$3-C39)</f>
         <v>0.25259462337531574</v>
       </c>
       <c r="G39" s="11"/>
@@ -21596,8 +21596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:F80"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22010,7 +22010,7 @@
         <v>7.9222796976517306E-3</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" ref="F37:F80" si="6">$C$29^($B$3-C39)</f>
+        <f t="shared" ref="F39:F80" si="6">$C$29^($B$3-C39)</f>
         <v>0.23716728318487199</v>
       </c>
     </row>
@@ -23064,7 +23064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
